--- a/C语言课程讲义_笔记/B站鹏哥/2024_5_27 P_34分支和循环语句-do-while循环.xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_5_27 P_34分支和循环语句-do-while循环.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>先do 再判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,12 +45,16 @@
     <t>那么需要这样去处理：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>strcmp函数的返回值为0表示两个字符串相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +64,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -86,8 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -907,34 +921,262 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361240</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>75856</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914650" y="42243375"/>
+          <a:ext cx="5676190" cy="2752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>665548</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>75346</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10248900" y="42110025"/>
+          <a:ext cx="9619048" cy="6828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>665475</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>47062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="45091350"/>
+          <a:ext cx="10200000" cy="4504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>245</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>637465</xdr:colOff>
-      <xdr:row>261</xdr:row>
-      <xdr:rowOff>161581</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="图片 23"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1133475" y="42157650"/>
-          <a:ext cx="5676190" cy="2752381"/>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>65498</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>85598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="50673000"/>
+          <a:ext cx="9419048" cy="1019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>408352</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>114224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="51796950"/>
+          <a:ext cx="9780952" cy="609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>284457</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>28521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="52578000"/>
+          <a:ext cx="10342857" cy="428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>83845</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>122932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="53159025"/>
+          <a:ext cx="15038095" cy="7142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1233,10 +1475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:W184"/>
+  <dimension ref="D7:W308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="S267" sqref="S267:T268"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="AA318" sqref="AA318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1276,6 +1518,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="308" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R308" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/C语言课程讲义_笔记/B站鹏哥/2024_5_27 P_34分支和循环语句-do-while循环.xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_5_27 P_34分支和循环语句-do-while循环.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>先do 再判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,42 @@
   </si>
   <si>
     <t>strcmp函数的返回值为0表示两个字符串相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么都重复了呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为要srand来设置一个随机开始的起点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置了srand（100）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果变这样了——我们要一个随机数，就必须要一个随机数起点？这不是套娃了吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——TIME，时间！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以要用到——时间戳——的概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那怎么解决？有什么东西是永恒变换而不停止的？可以用来锚定随机数值的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后再取模 % 100 + 1，伪随机的结果值就在1-100之间了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么起点放到主函数里呢？这个还得再研究研究</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1177,6 +1213,348 @@
         <a:xfrm>
           <a:off x="819150" y="53159025"/>
           <a:ext cx="15038095" cy="7142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>341718</xdr:colOff>
+      <xdr:row>390</xdr:row>
+      <xdr:rowOff>75582</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7343775" y="61998225"/>
+          <a:ext cx="9457143" cy="4942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361245</xdr:colOff>
+      <xdr:row>409</xdr:row>
+      <xdr:rowOff>46576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581150" y="61779150"/>
+          <a:ext cx="5638095" cy="8390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>37597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>245438</xdr:colOff>
+      <xdr:row>413</xdr:row>
+      <xdr:rowOff>18608</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524749" y="67760347"/>
+          <a:ext cx="15352089" cy="3067111"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>362</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>656901</xdr:colOff>
+      <xdr:row>389</xdr:row>
+      <xdr:rowOff>142281</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10410825" y="62083950"/>
+          <a:ext cx="2590476" cy="4752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>417</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180429</xdr:colOff>
+      <xdr:row>426</xdr:row>
+      <xdr:rowOff>47433</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="71551800"/>
+          <a:ext cx="4371429" cy="1533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>415</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28212</xdr:colOff>
+      <xdr:row>443</xdr:row>
+      <xdr:rowOff>75599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11525250" y="71218425"/>
+          <a:ext cx="2904762" cy="4809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>443</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>8388</xdr:colOff>
+      <xdr:row>464</xdr:row>
+      <xdr:rowOff>151940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="76028550"/>
+          <a:ext cx="9095238" cy="3676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>467</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>160846</xdr:colOff>
+      <xdr:row>490</xdr:row>
+      <xdr:rowOff>37623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10048875" y="80229075"/>
+          <a:ext cx="8628571" cy="3819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>467</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>456414</xdr:colOff>
+      <xdr:row>492</xdr:row>
+      <xdr:rowOff>94723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400300" y="80229075"/>
+          <a:ext cx="6285714" cy="4219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1475,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:W308"/>
+  <dimension ref="D7:W495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="AA318" sqref="AA318"/>
+    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
+      <selection activeCell="T504" sqref="T504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1523,6 +1901,47 @@
         <v>7</v>
       </c>
     </row>
+    <row r="394" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M394" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="415" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M415" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="421" spans="13:23" x14ac:dyDescent="0.15">
+      <c r="M421" t="s">
+        <v>10</v>
+      </c>
+      <c r="W421" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="439" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D439" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="441" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D441" t="s">
+        <v>12</v>
+      </c>
+      <c r="H441" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="494" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="R494" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="495" spans="6:18" x14ac:dyDescent="0.15">
+      <c r="F495" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
